--- a/xlsx/15号州际公路加利福尼亚州段_intext.xlsx
+++ b/xlsx/15号州际公路加利福尼亚州段_intext.xlsx
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E7%B4%8D%E8%BF%AA%E8%AB%BE%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖貝納迪諾縣</t>
+    <t>圣贝纳迪诺县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%BF%B1%E7%B8%A3</t>
   </si>
   <si>
-    <t>河濱縣</t>
+    <t>河滨县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%BF%AD%E6%88%88%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/8%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>8號州際公路</t>
+    <t>8号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/52%E5%8F%B7%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E5%B7%9E%E9%81%93</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E8%BC%94%E5%8A%A9%E7%B7%9A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州際公路輔助線列表</t>
+    <t>美国州际公路辅助线列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/215%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
